--- a/backend/test.xlsx
+++ b/backend/test.xlsx
@@ -1998,7 +1998,7 @@
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="15" t="inlineStr">
         <is>
-          <t>San Diego, CA 92104</t>
+          <t>San Diego ,CA 92104</t>
         </is>
       </c>
       <c r="F16" s="7" t="n"/>
@@ -2066,7 +2066,7 @@
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>REPLACE</t>
+          <t>49204808</t>
         </is>
       </c>
       <c r="F20" s="23" t="n"/>
@@ -2084,11 +2084,7 @@
       </c>
       <c r="C21" s="9" t="n"/>
       <c r="D21" s="7" t="n"/>
-      <c r="E21" s="24" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
+      <c r="E21" s="24" t="inlineStr"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="13" t="n"/>
@@ -2126,7 +2122,7 @@
       <c r="D23" s="7" t="n"/>
       <c r="E23" s="25" t="inlineStr">
         <is>
-          <t>REPLACE</t>
+          <t>8/19/2024</t>
         </is>
       </c>
       <c r="F23" s="7" t="n"/>
@@ -2184,154 +2180,116 @@
       <c r="J25" s="2" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="63">
-      <c r="A26" s="10" t="inlineStr">
+      <c r="A26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34" t="inlineStr">
+        <is>
+          <t>Cases</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr"/>
+      <c r="D26" s="10" t="inlineStr">
         <is>
           <t>REPLACE</t>
         </is>
       </c>
-      <c r="B26" s="34" t="inlineStr">
-        <is>
-          <t>Cases</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
       <c r="E26" s="68" t="n"/>
-      <c r="F26" s="10" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="G26" s="15" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
+      <c r="F26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="H26" s="13" t="n"/>
       <c r="I26" s="13" t="n"/>
       <c r="J26" s="2" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="63">
-      <c r="A27" s="36" t="inlineStr">
+      <c r="A27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="37" t="inlineStr">
+        <is>
+          <t>Cases</t>
+        </is>
+      </c>
+      <c r="C27" s="36" t="inlineStr"/>
+      <c r="D27" s="36" t="inlineStr">
         <is>
           <t>REPLACE</t>
         </is>
       </c>
-      <c r="B27" s="37" t="inlineStr">
-        <is>
-          <t>Cases</t>
-        </is>
-      </c>
-      <c r="C27" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="D27" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
       <c r="E27" s="69" t="n"/>
-      <c r="F27" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="G27" s="10" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
+      <c r="F27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="H27" s="13" t="n"/>
       <c r="I27" s="13" t="n"/>
       <c r="J27" s="2" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="63">
-      <c r="A28" s="36" t="inlineStr">
+      <c r="A28" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>Cases</t>
+        </is>
+      </c>
+      <c r="C28" s="36" t="inlineStr"/>
+      <c r="D28" s="36" t="inlineStr">
         <is>
           <t>REPLACE</t>
         </is>
       </c>
-      <c r="B28" s="37" t="inlineStr">
-        <is>
-          <t>Cases</t>
-        </is>
-      </c>
-      <c r="C28" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="D28" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
       <c r="E28" s="69" t="n"/>
-      <c r="F28" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="G28" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
+      <c r="F28" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="36" t="n">
+        <v>0</v>
       </c>
       <c r="H28" s="13" t="n"/>
       <c r="I28" s="13" t="n"/>
       <c r="J28" s="2" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="63">
-      <c r="A29" s="36" t="inlineStr">
+      <c r="A29" s="36" t="n">
+        <v>150</v>
+      </c>
+      <c r="B29" s="37" t="inlineStr">
+        <is>
+          <t>Cases</t>
+        </is>
+      </c>
+      <c r="C29" s="36" t="inlineStr">
+        <is>
+          <t>10068</t>
+        </is>
+      </c>
+      <c r="D29" s="36" t="inlineStr">
         <is>
           <t>REPLACE</t>
         </is>
       </c>
-      <c r="B29" s="37" t="inlineStr">
-        <is>
-          <t>Cases</t>
-        </is>
-      </c>
-      <c r="C29" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="D29" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
       <c r="E29" s="69" t="n"/>
-      <c r="F29" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="G29" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
+      <c r="F29" s="36" t="n">
+        <v>450</v>
+      </c>
+      <c r="G29" s="36" t="n">
+        <v>67500</v>
       </c>
       <c r="H29" s="13" t="n"/>
       <c r="I29" s="13" t="n"/>
       <c r="J29" s="2" t="n"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="63">
-      <c r="A30" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
+      <c r="A30" s="36" t="n">
+        <v>150</v>
       </c>
       <c r="B30" s="37" t="inlineStr">
         <is>
@@ -2346,10 +2304,8 @@
         </is>
       </c>
       <c r="F30" s="40" t="n"/>
-      <c r="G30" s="41" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
+      <c r="G30" s="41" t="n">
+        <v>66150</v>
       </c>
       <c r="H30" s="13" t="n"/>
       <c r="I30" s="13" t="n"/>

--- a/backend/test.xlsx
+++ b/backend/test.xlsx
@@ -17,7 +17,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; &quot;&quot;$&quot;* #,##0.00&quot; &quot;;&quot; &quot;&quot;$&quot;* (#,##0.00);&quot; &quot;&quot;$&quot;* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <name val="Arial"/>
       <color indexed="8"/>
@@ -74,13 +74,6 @@
       <u val="single"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color indexed="11"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <color indexed="11"/>
       <sz val="12"/>
@@ -110,11 +103,11 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <color indexed="14"/>
+      <color indexed="13"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -127,14 +120,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -199,76 +186,6 @@
       </top>
       <bottom style="medium">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -321,6 +238,36 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -370,6 +317,19 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -424,11 +384,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -489,28 +449,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -525,10 +473,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -544,6 +492,18 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -552,13 +512,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -567,7 +527,7 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -576,60 +536,63 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="15" fontId="14" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="15" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -655,7 +618,6 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffdd0806"/>
       <rgbColor rgb="ff0000d4"/>
-      <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ff808080"/>
     </indexedColors>
   </colors>
@@ -675,7 +637,7 @@
       <col>3</col>
       <colOff>743396</colOff>
       <row>4</row>
-      <rowOff>67499</rowOff>
+      <rowOff>67498</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -692,7 +654,7 @@
       </blipFill>
       <spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="86990" y="57598"/>
+          <a:off x="86990" y="57597"/>
           <a:ext cx="2332807" cy="1076702"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1858,7 +1820,7 @@
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>8/01/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -1902,7 +1864,7 @@
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="15" t="inlineStr">
         <is>
-          <t>KeHE Distributors, LLC</t>
+          <t>SUN TROPICS/ABC BEV/CHIL</t>
         </is>
       </c>
       <c r="F10" s="7" t="n"/>
@@ -1918,7 +1880,7 @@
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="15" t="inlineStr">
         <is>
-          <t>4055 Deerpark Blvd</t>
+          <t>123 Drinks Way</t>
         </is>
       </c>
       <c r="F11" s="7" t="n"/>
@@ -1934,7 +1896,7 @@
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Elkton, FL 32033</t>
+          <t>509-747-7447 Jack London</t>
         </is>
       </c>
       <c r="F12" s="7" t="n"/>
@@ -1948,7 +1910,11 @@
       <c r="B13" s="7" t="n"/>
       <c r="C13" s="7" t="n"/>
       <c r="D13" s="7" t="n"/>
-      <c r="E13" s="16" t="n"/>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t>SPOKANE, WA 99224</t>
+        </is>
+      </c>
       <c r="F13" s="16" t="n"/>
       <c r="G13" s="16" t="n"/>
       <c r="H13" s="13" t="n"/>
@@ -1966,7 +1932,7 @@
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="15" t="inlineStr">
         <is>
-          <t>KEHE DISTRIBUTORS</t>
+          <t>UNFI - Dublin, CA</t>
         </is>
       </c>
       <c r="F14" s="66" t="n"/>
@@ -1982,7 +1948,7 @@
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="15" t="inlineStr">
         <is>
-          <t>456 Destiny Road</t>
+          <t>4000 Inspiration Drive</t>
         </is>
       </c>
       <c r="F15" s="66" t="n"/>
@@ -1998,7 +1964,7 @@
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="15" t="inlineStr">
         <is>
-          <t>San Diego ,CA 92104</t>
+          <t>Dublin, CA 94568</t>
         </is>
       </c>
       <c r="F16" s="7" t="n"/>
@@ -2063,13 +2029,13 @@
         </is>
       </c>
       <c r="C20" s="9" t="n"/>
-      <c r="D20" s="21" t="n"/>
-      <c r="E20" s="22" t="inlineStr">
-        <is>
-          <t>49204808</t>
-        </is>
-      </c>
-      <c r="F20" s="23" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>2000-002</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="n"/>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="13" t="n"/>
       <c r="I20" s="13" t="n"/>
@@ -2084,7 +2050,11 @@
       </c>
       <c r="C21" s="9" t="n"/>
       <c r="D21" s="7" t="n"/>
-      <c r="E21" s="24" t="inlineStr"/>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="13" t="n"/>
@@ -2100,7 +2070,7 @@
       </c>
       <c r="C22" s="9" t="n"/>
       <c r="D22" s="9" t="n"/>
-      <c r="E22" s="24" t="inlineStr">
+      <c r="E22" s="15" t="inlineStr">
         <is>
           <t>REPLACE</t>
         </is>
@@ -2120,9 +2090,9 @@
       </c>
       <c r="C23" s="9" t="n"/>
       <c r="D23" s="7" t="n"/>
-      <c r="E23" s="25" t="inlineStr">
-        <is>
-          <t>8/19/2024</t>
+      <c r="E23" s="15" t="inlineStr">
+        <is>
+          <t>08/22/24</t>
         </is>
       </c>
       <c r="F23" s="7" t="n"/>
@@ -2133,10 +2103,10 @@
     </row>
     <row r="24" ht="16.5" customHeight="1" s="63">
       <c r="A24" s="16" t="n"/>
-      <c r="B24" s="26" t="n"/>
-      <c r="C24" s="26" t="n"/>
+      <c r="B24" s="21" t="n"/>
+      <c r="C24" s="21" t="n"/>
       <c r="D24" s="16" t="n"/>
-      <c r="E24" s="14" t="inlineStr">
+      <c r="E24" s="22" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -2148,156 +2118,192 @@
       <c r="J24" s="2" t="n"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" s="63">
-      <c r="A25" s="27" t="inlineStr">
+      <c r="A25" s="23" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
       <c r="B25" s="67" t="n"/>
-      <c r="C25" s="29" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>Item#</t>
         </is>
       </c>
-      <c r="D25" s="30" t="inlineStr">
+      <c r="D25" s="26" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E25" s="31" t="n"/>
-      <c r="F25" s="30" t="inlineStr">
+      <c r="E25" s="27" t="n"/>
+      <c r="F25" s="26" t="inlineStr">
         <is>
           <t>Price/case</t>
         </is>
       </c>
-      <c r="G25" s="32" t="inlineStr">
+      <c r="G25" s="28" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H25" s="33" t="n"/>
+      <c r="H25" s="29" t="n"/>
       <c r="I25" s="13" t="n"/>
       <c r="J25" s="2" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="63">
-      <c r="A26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34" t="inlineStr">
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B26" s="30" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr"/>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>02420</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/64 oz Suntropics Mango Nectar </t>
         </is>
       </c>
       <c r="E26" s="68" t="n"/>
-      <c r="F26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15" t="n">
-        <v>0</v>
+      <c r="F26" s="10" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="G26" s="15" t="inlineStr">
+        <is>
+          <t>45000.00</t>
+        </is>
       </c>
       <c r="H26" s="13" t="n"/>
       <c r="I26" s="13" t="n"/>
       <c r="J26" s="2" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="63">
-      <c r="A27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="B27" s="37" t="inlineStr">
+      <c r="A27" s="32" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B27" s="33" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C27" s="36" t="inlineStr"/>
-      <c r="D27" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
+      <c r="C27" s="32" t="inlineStr">
+        <is>
+          <t>02421</t>
+        </is>
+      </c>
+      <c r="D27" s="22" t="inlineStr">
+        <is>
+          <t>8/64 oz Suntropics Guava Nectar</t>
         </is>
       </c>
       <c r="E27" s="69" t="n"/>
-      <c r="F27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10" t="n">
-        <v>0</v>
+      <c r="F27" s="32" t="inlineStr">
+        <is>
+          <t>350.00</t>
+        </is>
+      </c>
+      <c r="G27" s="10" t="inlineStr">
+        <is>
+          <t>26250.00</t>
+        </is>
       </c>
       <c r="H27" s="13" t="n"/>
       <c r="I27" s="13" t="n"/>
       <c r="J27" s="2" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="63">
-      <c r="A28" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" s="37" t="inlineStr">
+      <c r="A28" s="32" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B28" s="33" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C28" s="36" t="inlineStr"/>
-      <c r="D28" s="36" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
+      <c r="C28" s="32" t="inlineStr">
+        <is>
+          <t>100262</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/64 oz  Suntropics Calamansi - </t>
         </is>
       </c>
       <c r="E28" s="69" t="n"/>
-      <c r="F28" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="36" t="n">
-        <v>0</v>
+      <c r="F28" s="32" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="G28" s="32" t="inlineStr">
+        <is>
+          <t>18000.00</t>
+        </is>
       </c>
       <c r="H28" s="13" t="n"/>
       <c r="I28" s="13" t="n"/>
       <c r="J28" s="2" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="63">
-      <c r="A29" s="36" t="n">
-        <v>150</v>
-      </c>
-      <c r="B29" s="37" t="inlineStr">
+      <c r="A29" s="32" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B29" s="33" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C29" s="36" t="inlineStr">
+      <c r="C29" s="35" t="inlineStr">
         <is>
           <t>10068</t>
         </is>
       </c>
       <c r="D29" s="36" t="inlineStr">
         <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="E29" s="69" t="n"/>
-      <c r="F29" s="36" t="n">
-        <v>450</v>
-      </c>
-      <c r="G29" s="36" t="n">
-        <v>67500</v>
+          <t>8/64 oz  Suntropics Passion OJ Guava 100% Juice</t>
+        </is>
+      </c>
+      <c r="E29" s="70" t="n"/>
+      <c r="F29" s="32" t="inlineStr">
+        <is>
+          <t>450.00</t>
+        </is>
+      </c>
+      <c r="G29" s="32" t="inlineStr">
+        <is>
+          <t>33750.00</t>
+        </is>
       </c>
       <c r="H29" s="13" t="n"/>
       <c r="I29" s="13" t="n"/>
       <c r="J29" s="2" t="n"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="63">
-      <c r="A30" s="36" t="n">
-        <v>150</v>
-      </c>
-      <c r="B30" s="37" t="inlineStr">
+      <c r="A30" s="32" t="n">
+        <v>345</v>
+      </c>
+      <c r="B30" s="33" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
       <c r="C30" s="7" t="n"/>
-      <c r="D30" s="9" t="n"/>
+      <c r="D30" s="38" t="n"/>
       <c r="E30" s="39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2305,7 +2311,7 @@
       </c>
       <c r="F30" s="40" t="n"/>
       <c r="G30" s="41" t="n">
-        <v>66150</v>
+        <v>123000</v>
       </c>
       <c r="H30" s="13" t="n"/>
       <c r="I30" s="13" t="n"/>
@@ -2318,7 +2324,7 @@
       <c r="D31" s="9" t="n"/>
       <c r="E31" s="42" t="n"/>
       <c r="F31" s="40" t="n"/>
-      <c r="G31" s="70" t="n"/>
+      <c r="G31" s="71" t="n"/>
       <c r="H31" s="13" t="n"/>
       <c r="I31" s="13" t="n"/>
       <c r="J31" s="2" t="n"/>
@@ -2338,7 +2344,7 @@
         </is>
       </c>
       <c r="F32" s="40" t="n"/>
-      <c r="G32" s="71" t="n"/>
+      <c r="G32" s="72" t="n"/>
       <c r="H32" s="13" t="n"/>
       <c r="I32" s="13" t="n"/>
       <c r="J32" s="2" t="n"/>
@@ -2350,13 +2356,13 @@
       <c r="D33" s="9" t="n"/>
       <c r="E33" s="45" t="n"/>
       <c r="F33" s="40" t="n"/>
-      <c r="G33" s="71" t="n"/>
+      <c r="G33" s="72" t="n"/>
       <c r="H33" s="13" t="n"/>
       <c r="I33" s="13" t="n"/>
       <c r="J33" s="2" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="63">
-      <c r="A34" s="36" t="inlineStr">
+      <c r="A34" s="32" t="inlineStr">
         <is>
           <t>"PLEASE MARK EVERY PALLET WITH THE ITEM#,  PRODUCT NAME AND EXPIRY DATE"</t>
         </is>
@@ -2378,7 +2384,7 @@
       <c r="D35" s="9" t="n"/>
       <c r="E35" s="45" t="n"/>
       <c r="F35" s="40" t="n"/>
-      <c r="G35" s="71" t="n"/>
+      <c r="G35" s="72" t="n"/>
       <c r="H35" s="13" t="n"/>
       <c r="I35" s="13" t="n"/>
       <c r="J35" s="2" t="n"/>
@@ -2390,13 +2396,13 @@
       <c r="D36" s="7" t="n"/>
       <c r="E36" s="42" t="n"/>
       <c r="F36" s="40" t="n"/>
-      <c r="G36" s="71" t="n"/>
+      <c r="G36" s="72" t="n"/>
       <c r="H36" s="13" t="n"/>
       <c r="I36" s="13" t="n"/>
       <c r="J36" s="2" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="63">
-      <c r="A37" s="37" t="inlineStr">
+      <c r="A37" s="33" t="inlineStr">
         <is>
           <t>Shelf Life:</t>
         </is>
@@ -2410,7 +2416,7 @@
         </is>
       </c>
       <c r="F37" s="40" t="n"/>
-      <c r="G37" s="71" t="n"/>
+      <c r="G37" s="72" t="n"/>
       <c r="H37" s="13" t="n"/>
       <c r="I37" s="13" t="n"/>
       <c r="J37" s="2" t="n"/>

--- a/backend/test.xlsx
+++ b/backend/test.xlsx
@@ -1932,7 +1932,7 @@
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="15" t="inlineStr">
         <is>
-          <t>UNFI - Dublin, CA</t>
+          <t>UNFI – Dublin, CA Appt:</t>
         </is>
       </c>
       <c r="F14" s="66" t="n"/>
@@ -1948,7 +1948,7 @@
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="15" t="inlineStr">
         <is>
-          <t>4000 Inspiration Drive</t>
+          <t>dubappts@unfi.com</t>
         </is>
       </c>
       <c r="F15" s="66" t="n"/>
@@ -1964,7 +1964,7 @@
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="15" t="inlineStr">
         <is>
-          <t>Dublin, CA 94568</t>
+          <t>4000 Inspiration Drive</t>
         </is>
       </c>
       <c r="F16" s="7" t="n"/>
@@ -1980,7 +1980,7 @@
       <c r="D17" s="7" t="n"/>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>REPLACE</t>
+          <t>Dublin, CA 94568</t>
         </is>
       </c>
       <c r="F17" s="7" t="n"/>
@@ -2050,11 +2050,7 @@
       </c>
       <c r="C21" s="9" t="n"/>
       <c r="D21" s="7" t="n"/>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E21" s="15" t="inlineStr"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="13" t="n"/>
@@ -2162,7 +2158,7 @@
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>02420</t>
+          <t>10827</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
@@ -2198,7 +2194,7 @@
       </c>
       <c r="C27" s="32" t="inlineStr">
         <is>
-          <t>02421</t>
+          <t>10829</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
@@ -2234,7 +2230,7 @@
       </c>
       <c r="C28" s="32" t="inlineStr">
         <is>
-          <t>100262</t>
+          <t>82058</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
@@ -2270,7 +2266,7 @@
       </c>
       <c r="C29" s="35" t="inlineStr">
         <is>
-          <t>10068</t>
+          <t>11311</t>
         </is>
       </c>
       <c r="D29" s="36" t="inlineStr">

--- a/backend/test.xlsx
+++ b/backend/test.xlsx
@@ -1932,7 +1932,7 @@
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="15" t="inlineStr">
         <is>
-          <t>UNFI – Dublin, CA Appt:</t>
+          <t>UNFI – Dublin, CA</t>
         </is>
       </c>
       <c r="F14" s="66" t="n"/>
@@ -1948,7 +1948,7 @@
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="15" t="inlineStr">
         <is>
-          <t>dubappts@unfi.com</t>
+          <t>4000 Inspiration Drive</t>
         </is>
       </c>
       <c r="F15" s="66" t="n"/>
@@ -1964,7 +1964,7 @@
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="15" t="inlineStr">
         <is>
-          <t>4000 Inspiration Drive</t>
+          <t>Dublin, CA 94568</t>
         </is>
       </c>
       <c r="F16" s="7" t="n"/>
@@ -1980,7 +1980,7 @@
       <c r="D17" s="7" t="n"/>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Dublin, CA 94568</t>
+          <t>REPLACE</t>
         </is>
       </c>
       <c r="F17" s="7" t="n"/>
@@ -2050,7 +2050,11 @@
       </c>
       <c r="C21" s="9" t="n"/>
       <c r="D21" s="7" t="n"/>
-      <c r="E21" s="15" t="inlineStr"/>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="13" t="n"/>
@@ -2158,7 +2162,7 @@
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>10827</t>
+          <t>02420</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
@@ -2194,7 +2198,7 @@
       </c>
       <c r="C27" s="32" t="inlineStr">
         <is>
-          <t>10829</t>
+          <t>02421</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
@@ -2230,7 +2234,7 @@
       </c>
       <c r="C28" s="32" t="inlineStr">
         <is>
-          <t>82058</t>
+          <t>100262</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
@@ -2266,7 +2270,7 @@
       </c>
       <c r="C29" s="35" t="inlineStr">
         <is>
-          <t>11311</t>
+          <t>10068</t>
         </is>
       </c>
       <c r="D29" s="36" t="inlineStr">

--- a/backend/test.xlsx
+++ b/backend/test.xlsx
@@ -17,7 +17,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; &quot;&quot;$&quot;* #,##0.00&quot; &quot;;&quot; &quot;&quot;$&quot;* (#,##0.00);&quot; &quot;&quot;$&quot;* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <name val="Arial"/>
       <color indexed="8"/>
@@ -68,14 +68,25 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <color indexed="11"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <color indexed="12"/>
       <sz val="10"/>
       <u val="single"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <color indexed="13"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Arial"/>
-      <color indexed="11"/>
+      <color indexed="13"/>
       <sz val="12"/>
     </font>
     <font>
@@ -86,7 +97,7 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <color indexed="11"/>
+      <color indexed="13"/>
       <sz val="11"/>
     </font>
     <font>
@@ -103,7 +114,7 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -121,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -148,6 +159,43 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -186,6 +234,58 @@
       </top>
       <bottom style="medium">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -238,36 +338,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -312,30 +382,6 @@
         <color indexed="10"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -356,19 +402,6 @@
         <color indexed="8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -388,7 +421,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -401,13 +434,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -419,180 +461,186 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="15" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="15" fontId="15" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -616,8 +664,9 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff4bacc6"/>
+      <rgbColor rgb="ff0000d4"/>
       <rgbColor rgb="ffdd0806"/>
-      <rgbColor rgb="ff0000d4"/>
       <rgbColor rgb="ff808080"/>
     </indexedColors>
   </colors>
@@ -637,7 +686,7 @@
       <col>3</col>
       <colOff>743396</colOff>
       <row>4</row>
-      <rowOff>67498</rowOff>
+      <rowOff>67497</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -655,7 +704,7 @@
       <spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="86990" y="57597"/>
-          <a:ext cx="2332807" cy="1076702"/>
+          <a:ext cx="2332807" cy="1076701"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
@@ -1721,7 +1770,7 @@
     <col width="8.851559999999999" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" s="63">
+    <row r="1" ht="24" customHeight="1" s="68">
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -1733,7 +1782,7 @@
       <c r="I1" s="2" t="n"/>
       <c r="J1" s="2" t="n"/>
     </row>
-    <row r="2" ht="24" customHeight="1" s="63">
+    <row r="2" ht="24" customHeight="1" s="68">
       <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
@@ -1745,7 +1794,7 @@
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
     </row>
-    <row r="3" ht="24" customHeight="1" s="63">
+    <row r="3" ht="24" customHeight="1" s="68">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
@@ -1757,7 +1806,7 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="63">
+    <row r="4" ht="12" customHeight="1" s="68">
       <c r="A4" s="2" t="n"/>
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="n"/>
@@ -1769,808 +1818,756 @@
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="63">
+    <row r="5" ht="18.75" customHeight="1" s="68">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>SALES ORDER</t>
         </is>
       </c>
-      <c r="B5" s="64" t="n"/>
-      <c r="C5" s="64" t="n"/>
-      <c r="D5" s="64" t="n"/>
-      <c r="E5" s="64" t="n"/>
-      <c r="F5" s="64" t="n"/>
-      <c r="G5" s="65" t="n"/>
+      <c r="B5" s="69" t="n"/>
+      <c r="C5" s="69" t="n"/>
+      <c r="D5" s="69" t="n"/>
+      <c r="E5" s="69" t="n"/>
+      <c r="F5" s="69" t="n"/>
+      <c r="G5" s="70" t="n"/>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="63">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
       <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="63">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
+    <row r="7" ht="12.75" customHeight="1" s="68">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="n"/>
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="63">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
+    <row r="8" ht="15.75" customHeight="1" s="68">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>DATE:</t>
         </is>
       </c>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="10" t="inlineStr">
+      <c r="C8" s="12" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>08/01/24</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F8" s="14" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="G8" s="12" t="inlineStr">
-        <is>
-          <t>ST-0002</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="13" t="n"/>
+      <c r="G8" s="15" t="inlineStr">
+        <is>
+          <t>ST-0015</t>
+        </is>
+      </c>
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="2" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="63">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="14" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" s="68">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">    </t>
         </is>
       </c>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
+      <c r="F9" s="10" t="n"/>
+      <c r="G9" s="10" t="n"/>
+      <c r="H9" s="16" t="n"/>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="2" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="63">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
+    <row r="10" ht="15.75" customHeight="1" s="68">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>TO:</t>
         </is>
       </c>
-      <c r="C10" s="9" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="15" t="inlineStr">
-        <is>
-          <t>SUN TROPICS/ABC BEV/CHIL</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="13" t="n"/>
+      <c r="C10" s="12" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="18" t="inlineStr">
+        <is>
+          <t>KeHE Distributors, LLC</t>
+        </is>
+      </c>
+      <c r="F10" s="19" t="n"/>
+      <c r="G10" s="19" t="n"/>
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="2" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="63">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="15" t="inlineStr">
-        <is>
-          <t>123 Drinks Way</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
+    <row r="11" ht="15.75" customHeight="1" s="68">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="18" t="inlineStr">
+        <is>
+          <t>4055 Deerpark Blvd</t>
+        </is>
+      </c>
+      <c r="F11" s="19" t="n"/>
+      <c r="G11" s="19" t="n"/>
+      <c r="H11" s="16" t="n"/>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="2" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="63">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>509-747-7447 Jack London</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="13" t="n"/>
+    <row r="12" ht="15.75" customHeight="1" s="68">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>Elkton, FL 32033</t>
+        </is>
+      </c>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="16" t="n"/>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="2" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="63">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="16" t="inlineStr">
-        <is>
-          <t>SPOKANE, WA 99224</t>
-        </is>
-      </c>
-      <c r="F13" s="16" t="n"/>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="13" t="n"/>
-      <c r="I13" s="13" t="n"/>
+    <row r="13" ht="15.75" customHeight="1" s="68">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="20" t="n"/>
+      <c r="F13" s="20" t="n"/>
+      <c r="G13" s="20" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="2" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="63">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="8" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="68">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>SHIP TO:</t>
         </is>
       </c>
-      <c r="C14" s="9" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="15" t="inlineStr">
-        <is>
-          <t>UNFI – Dublin, CA</t>
-        </is>
-      </c>
-      <c r="F14" s="66" t="n"/>
-      <c r="G14" s="67" t="n"/>
-      <c r="H14" s="13" t="n"/>
-      <c r="I14" s="13" t="n"/>
+      <c r="C14" s="12" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="18" t="inlineStr">
+        <is>
+          <t>KeHE Distributors</t>
+        </is>
+      </c>
+      <c r="F14" s="71" t="n"/>
+      <c r="G14" s="72" t="n"/>
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="2" t="n"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="63">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="9" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="15" t="inlineStr">
-        <is>
-          <t>4000 Inspiration Drive</t>
-        </is>
-      </c>
-      <c r="F15" s="66" t="n"/>
-      <c r="G15" s="67" t="n"/>
-      <c r="H15" s="13" t="n"/>
-      <c r="I15" s="13" t="n"/>
+    <row r="15" ht="15.75" customHeight="1" s="68">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" s="12" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>456 Destiny Road</t>
+        </is>
+      </c>
+      <c r="F15" s="71" t="n"/>
+      <c r="G15" s="72" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="2" t="n"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="63">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="15" t="inlineStr">
-        <is>
-          <t>Dublin, CA 94568</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="13" t="n"/>
-      <c r="I16" s="13" t="n"/>
+    <row r="16" ht="15.75" customHeight="1" s="68">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" s="12" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="18" t="inlineStr">
+        <is>
+          <t>San Diego, CA 92104</t>
+        </is>
+      </c>
+      <c r="F16" s="19" t="n"/>
+      <c r="G16" s="19" t="n"/>
+      <c r="H16" s="16" t="n"/>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="2" t="n"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="63">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="13" t="n"/>
-      <c r="I17" s="13" t="n"/>
+    <row r="17" ht="15.75" customHeight="1" s="68">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="12" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="19" t="n"/>
+      <c r="G17" s="19" t="n"/>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="2" t="n"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="63">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="19" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="13" t="n"/>
+    <row r="18" ht="15.75" customHeight="1" s="68">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="12" t="n"/>
+      <c r="C18" s="12" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="25" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="2" t="n"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="63">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="8" t="inlineStr">
+    <row r="19" ht="15.75" customHeight="1" s="68">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>TRUCKING CO:</t>
         </is>
       </c>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="20" t="inlineStr">
+      <c r="C19" s="12" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="26" t="inlineStr">
         <is>
           <t>Speedy Trucking</t>
         </is>
       </c>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="13" t="n"/>
+      <c r="F19" s="10" t="n"/>
+      <c r="G19" s="10" t="n"/>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="2" t="n"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="63">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="8" t="inlineStr">
+    <row r="20" ht="15.75" customHeight="1" s="68">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>PO#</t>
         </is>
       </c>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="15" t="inlineStr">
-        <is>
-          <t>2000-002</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="13" t="n"/>
+      <c r="C20" s="12" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F20" s="10" t="n"/>
+      <c r="G20" s="10" t="n"/>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="2" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="63">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="inlineStr">
+    <row r="21" ht="15.75" customHeight="1" s="68">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="11" t="inlineStr">
         <is>
           <t>PRODUCTION DATE:</t>
         </is>
       </c>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>08/01/24</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="13" t="n"/>
+      <c r="C21" s="12" t="n"/>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="18" t="inlineStr"/>
+      <c r="F21" s="10" t="n"/>
+      <c r="G21" s="10" t="n"/>
+      <c r="H21" s="16" t="n"/>
+      <c r="I21" s="16" t="n"/>
       <c r="J21" s="2" t="n"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="63">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>ETD-Spokane:</t>
-        </is>
-      </c>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="15" t="inlineStr">
-        <is>
-          <t>REPLACE</t>
-        </is>
-      </c>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="13" t="n"/>
+    <row r="22" ht="15.75" customHeight="1" s="68">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>ETD:</t>
+        </is>
+      </c>
+      <c r="C22" s="12" t="n"/>
+      <c r="D22" s="12" t="n"/>
+      <c r="E22" s="18" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="10" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="n"/>
       <c r="J22" s="2" t="n"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="63">
-      <c r="A23" s="7" t="n"/>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>ETA-MV</t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="15" t="inlineStr">
-        <is>
-          <t>08/22/24</t>
-        </is>
-      </c>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="13" t="n"/>
+    <row r="23" ht="15.75" customHeight="1" s="68">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="11" t="inlineStr">
+        <is>
+          <t>ETA:</t>
+        </is>
+      </c>
+      <c r="C23" s="12" t="n"/>
+      <c r="D23" s="10" t="n"/>
+      <c r="E23" s="18" t="inlineStr">
+        <is>
+          <t>08/19/2024</t>
+        </is>
+      </c>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="n"/>
       <c r="J23" s="2" t="n"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1" s="63">
-      <c r="A24" s="16" t="n"/>
-      <c r="B24" s="21" t="n"/>
-      <c r="C24" s="21" t="n"/>
-      <c r="D24" s="16" t="n"/>
-      <c r="E24" s="22" t="inlineStr">
+    <row r="24" ht="16.5" customHeight="1" s="68">
+      <c r="A24" s="27" t="n"/>
+      <c r="B24" s="28" t="n"/>
+      <c r="C24" s="28" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="29" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="F24" s="16" t="n"/>
-      <c r="G24" s="16" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="13" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="16" t="n"/>
+      <c r="I24" s="16" t="n"/>
       <c r="J24" s="2" t="n"/>
     </row>
-    <row r="25" ht="16.5" customHeight="1" s="63">
-      <c r="A25" s="23" t="inlineStr">
+    <row r="25" ht="16.5" customHeight="1" s="68">
+      <c r="A25" s="30" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="B25" s="67" t="n"/>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="B25" s="72" t="n"/>
+      <c r="C25" s="32" t="inlineStr">
         <is>
           <t>Item#</t>
         </is>
       </c>
-      <c r="D25" s="26" t="inlineStr">
+      <c r="D25" s="33" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E25" s="27" t="n"/>
-      <c r="F25" s="26" t="inlineStr">
+      <c r="E25" s="34" t="n"/>
+      <c r="F25" s="33" t="inlineStr">
         <is>
           <t>Price/case</t>
         </is>
       </c>
-      <c r="G25" s="28" t="inlineStr">
+      <c r="G25" s="35" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H25" s="29" t="n"/>
-      <c r="I25" s="13" t="n"/>
+      <c r="H25" s="36" t="n"/>
+      <c r="I25" s="16" t="n"/>
       <c r="J25" s="2" t="n"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="63">
-      <c r="A26" s="10" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="B26" s="30" t="inlineStr">
+    <row r="26" ht="15.75" customHeight="1" s="68">
+      <c r="A26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" s="37" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>02420</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
+      <c r="C26" s="18" t="inlineStr"/>
+      <c r="D26" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">8/64 oz Suntropics Mango Nectar </t>
         </is>
       </c>
-      <c r="E26" s="68" t="n"/>
-      <c r="F26" s="10" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="G26" s="15" t="inlineStr">
-        <is>
-          <t>45000.00</t>
-        </is>
-      </c>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="13" t="n"/>
+      <c r="E26" s="73" t="n"/>
+      <c r="F26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16" t="n"/>
+      <c r="I26" s="16" t="n"/>
       <c r="J26" s="2" t="n"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="63">
-      <c r="A27" s="32" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B27" s="33" t="inlineStr">
+    <row r="27" ht="15.75" customHeight="1" s="68">
+      <c r="A27" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="39" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C27" s="32" t="inlineStr">
-        <is>
-          <t>02421</t>
-        </is>
-      </c>
-      <c r="D27" s="22" t="inlineStr">
+      <c r="C27" s="18" t="inlineStr"/>
+      <c r="D27" s="29" t="inlineStr">
         <is>
           <t>8/64 oz Suntropics Guava Nectar</t>
         </is>
       </c>
-      <c r="E27" s="69" t="n"/>
-      <c r="F27" s="32" t="inlineStr">
-        <is>
-          <t>350.00</t>
-        </is>
-      </c>
-      <c r="G27" s="10" t="inlineStr">
-        <is>
-          <t>26250.00</t>
-        </is>
-      </c>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="13" t="n"/>
+      <c r="E27" s="74" t="n"/>
+      <c r="F27" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16" t="n"/>
+      <c r="I27" s="16" t="n"/>
       <c r="J27" s="2" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="63">
-      <c r="A28" s="32" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B28" s="33" t="inlineStr">
+    <row r="28" ht="15.75" customHeight="1" s="68">
+      <c r="A28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" s="39" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C28" s="32" t="inlineStr">
-        <is>
-          <t>100262</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
+      <c r="C28" s="18" t="inlineStr"/>
+      <c r="D28" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">8/64 oz  Suntropics Calamansi - </t>
         </is>
       </c>
-      <c r="E28" s="69" t="n"/>
-      <c r="F28" s="32" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
-      </c>
-      <c r="G28" s="32" t="inlineStr">
-        <is>
-          <t>18000.00</t>
-        </is>
-      </c>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="13" t="n"/>
+      <c r="E28" s="74" t="n"/>
+      <c r="F28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16" t="n"/>
+      <c r="I28" s="16" t="n"/>
       <c r="J28" s="2" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="63">
-      <c r="A29" s="32" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B29" s="33" t="inlineStr">
+    <row r="29" ht="15.75" customHeight="1" s="68">
+      <c r="A29" s="18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B29" s="39" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C29" s="35" t="inlineStr">
+      <c r="C29" s="18" t="inlineStr">
         <is>
           <t>10068</t>
         </is>
       </c>
-      <c r="D29" s="36" t="inlineStr">
+      <c r="D29" s="41" t="inlineStr">
         <is>
           <t>8/64 oz  Suntropics Passion OJ Guava 100% Juice</t>
         </is>
       </c>
-      <c r="E29" s="70" t="n"/>
-      <c r="F29" s="32" t="inlineStr">
-        <is>
-          <t>450.00</t>
-        </is>
-      </c>
-      <c r="G29" s="32" t="inlineStr">
-        <is>
-          <t>33750.00</t>
-        </is>
-      </c>
-      <c r="H29" s="13" t="n"/>
-      <c r="I29" s="13" t="n"/>
+      <c r="E29" s="75" t="n"/>
+      <c r="F29" s="18" t="n">
+        <v>450</v>
+      </c>
+      <c r="G29" s="18" t="n">
+        <v>67500</v>
+      </c>
+      <c r="H29" s="16" t="n"/>
+      <c r="I29" s="16" t="n"/>
       <c r="J29" s="2" t="n"/>
     </row>
-    <row r="30" ht="16.5" customHeight="1" s="63">
-      <c r="A30" s="32" t="n">
-        <v>345</v>
-      </c>
-      <c r="B30" s="33" t="inlineStr">
+    <row r="30" ht="16.5" customHeight="1" s="68">
+      <c r="A30" s="18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B30" s="39" t="inlineStr">
         <is>
           <t>Cases</t>
         </is>
       </c>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="38" t="n"/>
-      <c r="E30" s="39" t="inlineStr">
+      <c r="C30" s="43" t="n"/>
+      <c r="D30" s="44" t="n"/>
+      <c r="E30" s="45" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F30" s="40" t="n"/>
-      <c r="G30" s="41" t="n">
-        <v>123000</v>
-      </c>
-      <c r="H30" s="13" t="n"/>
-      <c r="I30" s="13" t="n"/>
+      <c r="F30" s="46" t="n"/>
+      <c r="G30" s="18" t="n">
+        <v>67500</v>
+      </c>
+      <c r="H30" s="16" t="n"/>
+      <c r="I30" s="16" t="n"/>
       <c r="J30" s="2" t="n"/>
     </row>
-    <row r="31" ht="16.5" customHeight="1" s="63">
-      <c r="A31" s="7" t="n"/>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="9" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="40" t="n"/>
-      <c r="G31" s="71" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="13" t="n"/>
+    <row r="31" ht="16.5" customHeight="1" s="68">
+      <c r="A31" s="43" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="12" t="n"/>
+      <c r="E31" s="47" t="n"/>
+      <c r="F31" s="48" t="n"/>
+      <c r="G31" s="76" t="n"/>
+      <c r="H31" s="16" t="n"/>
+      <c r="I31" s="16" t="n"/>
       <c r="J31" s="2" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="63">
-      <c r="A32" s="8" t="inlineStr">
+    <row r="32" ht="15.75" customHeight="1" s="68">
+      <c r="A32" s="11" t="inlineStr">
         <is>
           <t>CODING INSTRUCTIONS:</t>
         </is>
       </c>
-      <c r="B32" s="9" t="n"/>
-      <c r="C32" s="9" t="n"/>
-      <c r="D32" s="9" t="n"/>
-      <c r="E32" s="12" t="inlineStr">
+      <c r="B32" s="12" t="n"/>
+      <c r="C32" s="12" t="n"/>
+      <c r="D32" s="12" t="n"/>
+      <c r="E32" s="50" t="inlineStr">
         <is>
           <t>Month/Date/yr</t>
         </is>
       </c>
-      <c r="F32" s="40" t="n"/>
-      <c r="G32" s="72" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="13" t="n"/>
+      <c r="F32" s="48" t="n"/>
+      <c r="G32" s="77" t="n"/>
+      <c r="H32" s="16" t="n"/>
+      <c r="I32" s="16" t="n"/>
       <c r="J32" s="2" t="n"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="63">
-      <c r="A33" s="9" t="n"/>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
-      <c r="D33" s="9" t="n"/>
-      <c r="E33" s="45" t="n"/>
-      <c r="F33" s="40" t="n"/>
-      <c r="G33" s="72" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="13" t="n"/>
+    <row r="33" ht="15.75" customHeight="1" s="68">
+      <c r="A33" s="12" t="n"/>
+      <c r="B33" s="12" t="n"/>
+      <c r="C33" s="12" t="n"/>
+      <c r="D33" s="12" t="n"/>
+      <c r="E33" s="52" t="n"/>
+      <c r="F33" s="48" t="n"/>
+      <c r="G33" s="77" t="n"/>
+      <c r="H33" s="16" t="n"/>
+      <c r="I33" s="16" t="n"/>
       <c r="J33" s="2" t="n"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="63">
-      <c r="A34" s="32" t="inlineStr">
+    <row r="34" ht="15.75" customHeight="1" s="68">
+      <c r="A34" s="53" t="inlineStr">
         <is>
           <t>"PLEASE MARK EVERY PALLET WITH THE ITEM#,  PRODUCT NAME AND EXPIRY DATE"</t>
         </is>
       </c>
-      <c r="B34" s="46" t="n"/>
-      <c r="C34" s="46" t="n"/>
-      <c r="D34" s="46" t="n"/>
-      <c r="E34" s="46" t="n"/>
-      <c r="F34" s="46" t="n"/>
-      <c r="G34" s="46" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="13" t="n"/>
+      <c r="B34" s="54" t="n"/>
+      <c r="C34" s="54" t="n"/>
+      <c r="D34" s="54" t="n"/>
+      <c r="E34" s="54" t="n"/>
+      <c r="F34" s="54" t="n"/>
+      <c r="G34" s="54" t="n"/>
+      <c r="H34" s="16" t="n"/>
+      <c r="I34" s="16" t="n"/>
       <c r="J34" s="2" t="n"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="63">
-      <c r="A35" s="9" t="n"/>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
-      <c r="D35" s="9" t="n"/>
-      <c r="E35" s="45" t="n"/>
-      <c r="F35" s="40" t="n"/>
-      <c r="G35" s="72" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="13" t="n"/>
+    <row r="35" ht="15.75" customHeight="1" s="68">
+      <c r="A35" s="12" t="n"/>
+      <c r="B35" s="12" t="n"/>
+      <c r="C35" s="12" t="n"/>
+      <c r="D35" s="12" t="n"/>
+      <c r="E35" s="52" t="n"/>
+      <c r="F35" s="48" t="n"/>
+      <c r="G35" s="77" t="n"/>
+      <c r="H35" s="16" t="n"/>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="2" t="n"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="63">
-      <c r="A36" s="7" t="n"/>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="40" t="n"/>
-      <c r="G36" s="72" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="13" t="n"/>
+    <row r="36" ht="15.75" customHeight="1" s="68">
+      <c r="A36" s="10" t="n"/>
+      <c r="B36" s="10" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="10" t="n"/>
+      <c r="E36" s="47" t="n"/>
+      <c r="F36" s="48" t="n"/>
+      <c r="G36" s="77" t="n"/>
+      <c r="H36" s="16" t="n"/>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="2" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="63">
-      <c r="A37" s="33" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="68">
+      <c r="A37" s="39" t="inlineStr">
         <is>
           <t>Shelf Life:</t>
         </is>
       </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="47" t="inlineStr">
+      <c r="B37" s="10" t="n"/>
+      <c r="C37" s="10" t="n"/>
+      <c r="D37" s="10" t="n"/>
+      <c r="E37" s="55" t="inlineStr">
         <is>
           <t>84 days from Production</t>
         </is>
       </c>
-      <c r="F37" s="40" t="n"/>
-      <c r="G37" s="72" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="13" t="n"/>
+      <c r="F37" s="48" t="n"/>
+      <c r="G37" s="77" t="n"/>
+      <c r="H37" s="16" t="n"/>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="2" t="n"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="63">
-      <c r="A38" s="7" t="n"/>
-      <c r="B38" s="9" t="n"/>
-      <c r="C38" s="9" t="n"/>
-      <c r="D38" s="9" t="n"/>
-      <c r="E38" s="48" t="inlineStr">
+    <row r="38" ht="15.75" customHeight="1" s="68">
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="12" t="n"/>
+      <c r="C38" s="12" t="n"/>
+      <c r="D38" s="12" t="n"/>
+      <c r="E38" s="56" t="inlineStr">
         <is>
           <t>Certified true and correct</t>
         </is>
       </c>
-      <c r="F38" s="9" t="n"/>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="13" t="n"/>
+      <c r="F38" s="12" t="n"/>
+      <c r="G38" s="10" t="n"/>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="2" t="n"/>
     </row>
-    <row r="39" ht="15" customHeight="1" s="63">
-      <c r="A39" s="49" t="n"/>
-      <c r="B39" s="49" t="n"/>
-      <c r="C39" s="49" t="n"/>
-      <c r="D39" s="50" t="inlineStr">
+    <row r="39" ht="15" customHeight="1" s="68">
+      <c r="A39" s="57" t="n"/>
+      <c r="B39" s="57" t="n"/>
+      <c r="C39" s="57" t="n"/>
+      <c r="D39" s="58" t="inlineStr">
         <is>
           <t>Please do not ship products with less than 57 days shelf life.</t>
         </is>
       </c>
-      <c r="E39" s="64" t="n"/>
-      <c r="F39" s="65" t="n"/>
-      <c r="G39" s="52" t="n"/>
+      <c r="E39" s="69" t="n"/>
+      <c r="F39" s="70" t="n"/>
+      <c r="G39" s="59" t="n"/>
       <c r="H39" s="2" t="n"/>
       <c r="I39" s="2" t="n"/>
       <c r="J39" s="2" t="n"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="63">
-      <c r="A40" s="49" t="n"/>
-      <c r="B40" s="53" t="n"/>
-      <c r="C40" s="50" t="inlineStr">
+    <row r="40" ht="14.25" customHeight="1" s="68">
+      <c r="A40" s="57" t="n"/>
+      <c r="B40" s="60" t="n"/>
+      <c r="C40" s="58" t="inlineStr">
         <is>
           <t>If the shelf life is less than 57 days, please check with us if OK to ship.</t>
         </is>
       </c>
-      <c r="D40" s="64" t="n"/>
-      <c r="E40" s="64" t="n"/>
-      <c r="F40" s="64" t="n"/>
-      <c r="G40" s="65" t="n"/>
+      <c r="D40" s="69" t="n"/>
+      <c r="E40" s="69" t="n"/>
+      <c r="F40" s="69" t="n"/>
+      <c r="G40" s="70" t="n"/>
       <c r="H40" s="2" t="n"/>
       <c r="I40" s="2" t="n"/>
       <c r="J40" s="2" t="n"/>
     </row>
-    <row r="41" ht="31.5" customHeight="1" s="63">
-      <c r="A41" s="7" t="n"/>
-      <c r="B41" s="55" t="inlineStr">
+    <row r="41" ht="31.5" customHeight="1" s="68">
+      <c r="A41" s="10" t="n"/>
+      <c r="B41" s="61" t="inlineStr">
         <is>
           <t>Please inform us right away if this order is going to be delayed so that we may advise buyer to avoid late fee charge.</t>
         </is>
       </c>
-      <c r="C41" s="64" t="n"/>
-      <c r="D41" s="64" t="n"/>
-      <c r="E41" s="64" t="n"/>
-      <c r="F41" s="64" t="n"/>
-      <c r="G41" s="65" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="13" t="n"/>
+      <c r="C41" s="69" t="n"/>
+      <c r="D41" s="69" t="n"/>
+      <c r="E41" s="69" t="n"/>
+      <c r="F41" s="69" t="n"/>
+      <c r="G41" s="70" t="n"/>
+      <c r="H41" s="16" t="n"/>
+      <c r="I41" s="16" t="n"/>
       <c r="J41" s="2" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="63">
-      <c r="A42" s="7" t="n"/>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="7" t="n"/>
-      <c r="E42" s="57" t="n"/>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
-      <c r="H42" s="13" t="n"/>
-      <c r="I42" s="13" t="n"/>
+    <row r="42" ht="15.75" customHeight="1" s="68">
+      <c r="A42" s="10" t="n"/>
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="10" t="n"/>
+      <c r="E42" s="62" t="n"/>
+      <c r="F42" s="10" t="n"/>
+      <c r="G42" s="10" t="n"/>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="2" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="63">
-      <c r="A43" s="7" t="n"/>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="58" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="68">
+      <c r="A43" s="10" t="n"/>
+      <c r="B43" s="10" t="n"/>
+      <c r="C43" s="10" t="n"/>
+      <c r="D43" s="10" t="n"/>
+      <c r="E43" s="63" t="inlineStr">
         <is>
           <t>ASHLEY BENEDICT LAO</t>
         </is>
       </c>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="13" t="n"/>
-      <c r="I43" s="13" t="n"/>
+      <c r="F43" s="10" t="n"/>
+      <c r="G43" s="10" t="n"/>
+      <c r="H43" s="16" t="n"/>
+      <c r="I43" s="16" t="n"/>
       <c r="J43" s="2" t="n"/>
     </row>
-    <row r="44" ht="15" customHeight="1" s="63">
-      <c r="A44" s="49" t="n"/>
-      <c r="B44" s="49" t="n"/>
-      <c r="C44" s="49" t="n"/>
-      <c r="D44" s="49" t="n"/>
-      <c r="E44" s="49" t="n"/>
-      <c r="F44" s="59" t="n"/>
+    <row r="44" ht="15" customHeight="1" s="68">
+      <c r="A44" s="57" t="n"/>
+      <c r="B44" s="57" t="n"/>
+      <c r="C44" s="57" t="n"/>
+      <c r="D44" s="57" t="n"/>
+      <c r="E44" s="57" t="n"/>
+      <c r="F44" s="64" t="n"/>
       <c r="G44" s="2" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="13" t="n"/>
+      <c r="H44" s="16" t="n"/>
+      <c r="I44" s="16" t="n"/>
       <c r="J44" s="2" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="63">
-      <c r="A45" s="49" t="n"/>
-      <c r="B45" s="49" t="n"/>
-      <c r="C45" s="49" t="n"/>
-      <c r="D45" s="49" t="n"/>
-      <c r="E45" s="49" t="n"/>
-      <c r="F45" s="59" t="n"/>
+    <row r="45" ht="12" customHeight="1" s="68">
+      <c r="A45" s="57" t="n"/>
+      <c r="B45" s="57" t="n"/>
+      <c r="C45" s="57" t="n"/>
+      <c r="D45" s="57" t="n"/>
+      <c r="E45" s="57" t="n"/>
+      <c r="F45" s="64" t="n"/>
       <c r="G45" s="2" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="13" t="n"/>
+      <c r="H45" s="16" t="n"/>
+      <c r="I45" s="16" t="n"/>
       <c r="J45" s="2" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="63">
+    <row r="46" ht="12" customHeight="1" s="68">
       <c r="A46" s="2" t="n"/>
       <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="n"/>
       <c r="D46" s="2" t="n"/>
-      <c r="E46" s="60" t="n"/>
-      <c r="F46" s="61" t="n"/>
+      <c r="E46" s="65" t="n"/>
+      <c r="F46" s="66" t="n"/>
       <c r="G46" s="2" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="13" t="n"/>
+      <c r="H46" s="16" t="n"/>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="2" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1" s="63">
+    <row r="47" ht="12" customHeight="1" s="68">
       <c r="A47" s="2" t="n"/>
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="n"/>
       <c r="D47" s="2" t="n"/>
-      <c r="E47" s="62" t="n"/>
+      <c r="E47" s="67" t="n"/>
       <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="13" t="n"/>
+      <c r="H47" s="16" t="n"/>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="2" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1" s="63">
+    <row r="48" ht="12" customHeight="1" s="68">
       <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="n"/>
       <c r="D48" s="2" t="n"/>
-      <c r="E48" s="52" t="n"/>
-      <c r="F48" s="61" t="n"/>
+      <c r="E48" s="59" t="n"/>
+      <c r="F48" s="66" t="n"/>
       <c r="G48" s="2" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="13" t="n"/>
+      <c r="H48" s="16" t="n"/>
+      <c r="I48" s="16" t="n"/>
       <c r="J48" s="2" t="n"/>
     </row>
   </sheetData>
